--- a/config_3.16/game_module_config.xlsx
+++ b/config_3.16/game_module_config.xlsx
@@ -5054,10 +5054,10 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I331" sqref="I331"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7483,10 +7483,10 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>639</v>

--- a/config_3.16/game_module_config.xlsx
+++ b/config_3.16/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1023">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4028,10 +4028,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4115,30 +4111,6 @@
     </r>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_005_fudai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2月</t>
     </r>
@@ -4156,93 +4128,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-  </si>
-  <si>
-    <t>活动皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4271,22 +4156,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_003_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_004_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_003_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>红包鱼提示</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4303,42 +4172,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>集字榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_005_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_004_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_006_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月9日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4359,21 +4192,9 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_008_meigui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_041_xyxfl</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_005_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4410,14 +4231,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_009_lihe</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_sjb_style/act_007_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4435,6 +4248,57 @@
   </si>
   <si>
     <t>消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周常活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_009</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_010_taohua</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_006_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4442,7 +4306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4550,6 +4414,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4626,7 +4496,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4753,9 +4623,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4771,7 +4638,16 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5051,13 +4927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomRight" activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5078,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6329,7 +6205,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6483,7 +6359,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6587,7 +6463,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6616,7 +6492,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6631,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -11038,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11541,13 +11417,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1047</v>
+        <v>1006</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>1049</v>
+        <v>1008</v>
       </c>
       <c r="E256" s="16">
         <v>0</v>
@@ -11559,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>1026</v>
+        <v>990</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -12006,7 +11882,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -12036,53 +11912,53 @@
         <v>806</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="46" customFormat="1">
-      <c r="A275" s="43">
+    <row r="275" spans="1:9" s="16" customFormat="1">
+      <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="47" t="s">
+      <c r="B275" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C275" s="45" t="s">
+      <c r="C275" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="D275" s="44" t="s">
+      <c r="D275" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="E275" s="46">
-        <v>1</v>
-      </c>
-      <c r="F275" s="46">
-        <v>1</v>
-      </c>
-      <c r="G275" s="46">
-        <v>1</v>
-      </c>
-      <c r="I275" s="45" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="46" customFormat="1">
-      <c r="A276" s="43">
+      <c r="E275" s="16">
+        <v>0</v>
+      </c>
+      <c r="F275" s="16">
+        <v>0</v>
+      </c>
+      <c r="G275" s="16">
+        <v>0</v>
+      </c>
+      <c r="I275" s="14" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="45" customFormat="1">
+      <c r="A276" s="42">
         <v>275</v>
       </c>
-      <c r="B276" s="47" t="s">
+      <c r="B276" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="C276" s="45" t="s">
+      <c r="C276" s="44" t="s">
         <v>811</v>
       </c>
-      <c r="E276" s="46">
-        <v>1</v>
-      </c>
-      <c r="F276" s="46">
-        <v>1</v>
-      </c>
-      <c r="G276" s="46">
-        <v>1</v>
-      </c>
-      <c r="I276" s="45" t="s">
-        <v>1035</v>
+      <c r="E276" s="45">
+        <v>1</v>
+      </c>
+      <c r="F276" s="45">
+        <v>1</v>
+      </c>
+      <c r="G276" s="45">
+        <v>1</v>
+      </c>
+      <c r="I276" s="44" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12790,7 +12666,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C304" s="14" t="s">
         <v>925</v>
@@ -12967,29 +12843,29 @@
         <v>927</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="46" customFormat="1">
+    <row r="311" spans="1:9" s="45" customFormat="1">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="44" t="s">
+      <c r="B311" s="43" t="s">
         <v>964</v>
       </c>
-      <c r="C311" s="45" t="s">
+      <c r="C311" s="44" t="s">
         <v>923</v>
       </c>
-      <c r="D311" s="44" t="s">
+      <c r="D311" s="43" t="s">
         <v>924</v>
       </c>
-      <c r="E311" s="46">
-        <v>1</v>
-      </c>
-      <c r="F311" s="46">
-        <v>1</v>
-      </c>
-      <c r="G311" s="46">
-        <v>1</v>
-      </c>
-      <c r="I311" s="45" t="s">
+      <c r="E311" s="45">
+        <v>0</v>
+      </c>
+      <c r="F311" s="45">
+        <v>0</v>
+      </c>
+      <c r="G311" s="45">
+        <v>0</v>
+      </c>
+      <c r="I311" s="44" t="s">
         <v>928</v>
       </c>
     </row>
@@ -13033,10 +12909,10 @@
         <v>0</v>
       </c>
       <c r="F313" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" s="14" t="s">
         <v>937</v>
@@ -13085,10 +12961,10 @@
         <v>0</v>
       </c>
       <c r="F315" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G315" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
         <v>958</v>
@@ -13111,200 +12987,204 @@
         <v>0</v>
       </c>
       <c r="F316" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G316" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" s="14" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="16" customFormat="1">
+    <row r="317" spans="1:9" s="45" customFormat="1">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="17" t="s">
-        <v>985</v>
-      </c>
-      <c r="C317" s="14" t="s">
-        <v>986</v>
-      </c>
-      <c r="E317" s="16">
-        <v>0</v>
-      </c>
-      <c r="F317" s="16">
-        <v>1</v>
-      </c>
-      <c r="G317" s="16">
-        <v>1</v>
-      </c>
-      <c r="I317" s="14" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="16" customFormat="1">
+      <c r="B317" s="43" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C317" s="44" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E317" s="45">
+        <v>1</v>
+      </c>
+      <c r="F317" s="45">
+        <v>1</v>
+      </c>
+      <c r="G317" s="45">
+        <v>1</v>
+      </c>
+      <c r="I317" s="44" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="45" customFormat="1">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="17" t="s">
-        <v>988</v>
-      </c>
-      <c r="C318" s="14" t="s">
-        <v>989</v>
-      </c>
-      <c r="E318" s="16">
-        <v>0</v>
-      </c>
-      <c r="F318" s="16">
-        <v>1</v>
-      </c>
-      <c r="G318" s="16">
-        <v>1</v>
-      </c>
-      <c r="I318" s="14" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="16" customFormat="1">
+      <c r="B318" s="43" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C318" s="44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E318" s="45">
+        <v>1</v>
+      </c>
+      <c r="F318" s="45">
+        <v>1</v>
+      </c>
+      <c r="G318" s="45">
+        <v>1</v>
+      </c>
+      <c r="I318" s="44" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="45" customFormat="1">
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="17" t="s">
-        <v>991</v>
-      </c>
-      <c r="C319" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="E319" s="16">
-        <v>0</v>
-      </c>
-      <c r="F319" s="16">
-        <v>1</v>
-      </c>
-      <c r="G319" s="16">
-        <v>1</v>
-      </c>
-      <c r="I319" s="14" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="16" customFormat="1">
+      <c r="B319" s="43" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C319" s="44" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E319" s="45">
+        <v>1</v>
+      </c>
+      <c r="F319" s="45">
+        <v>1</v>
+      </c>
+      <c r="G319" s="45">
+        <v>1</v>
+      </c>
+      <c r="I319" s="44" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="45" customFormat="1">
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="C320" s="14" t="s">
-        <v>994</v>
-      </c>
-      <c r="E320" s="16">
-        <v>0</v>
-      </c>
-      <c r="F320" s="16">
-        <v>1</v>
-      </c>
-      <c r="G320" s="16">
-        <v>1</v>
-      </c>
-      <c r="I320" s="14" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="16" customFormat="1">
+      <c r="B320" s="47" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C320" s="44" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E320" s="45">
+        <v>1</v>
+      </c>
+      <c r="F320" s="45">
+        <v>1</v>
+      </c>
+      <c r="G320" s="45">
+        <v>1</v>
+      </c>
+      <c r="I320" s="48" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="45" customFormat="1">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="17" t="s">
-        <v>995</v>
-      </c>
-      <c r="C321" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="E321" s="16">
-        <v>0</v>
-      </c>
-      <c r="F321" s="16">
-        <v>1</v>
-      </c>
-      <c r="G321" s="16">
-        <v>1</v>
-      </c>
-      <c r="I321" s="14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="16" customFormat="1">
+      <c r="B321" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C321" s="44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E321" s="45">
+        <v>1</v>
+      </c>
+      <c r="F321" s="45">
+        <v>1</v>
+      </c>
+      <c r="G321" s="45">
+        <v>1</v>
+      </c>
+      <c r="I321" s="48" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="45" customFormat="1">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="17" t="s">
-        <v>997</v>
-      </c>
-      <c r="C322" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="E322" s="16">
-        <v>0</v>
-      </c>
-      <c r="F322" s="16">
-        <v>1</v>
-      </c>
-      <c r="G322" s="16">
-        <v>1</v>
-      </c>
-      <c r="I322" s="14" t="s">
-        <v>990</v>
+      <c r="B322" s="43" t="s">
+        <v>956</v>
+      </c>
+      <c r="C322" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D322" s="43" t="s">
+        <v>957</v>
+      </c>
+      <c r="E322" s="45">
+        <v>1</v>
+      </c>
+      <c r="F322" s="45">
+        <v>1</v>
+      </c>
+      <c r="G322" s="45">
+        <v>1</v>
+      </c>
+      <c r="I322" s="44" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="42" t="s">
-        <v>999</v>
+      <c r="B323" s="50" t="s">
+        <v>1015</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1000</v>
-      </c>
+        <v>1016</v>
+      </c>
+      <c r="D323" s="17"/>
       <c r="E323" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F323" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G323" s="16">
-        <v>1</v>
-      </c>
-      <c r="I323" s="18" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="46" customFormat="1">
+        <v>0</v>
+      </c>
+      <c r="I323" s="14" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="16" customFormat="1">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="44" t="s">
-        <v>956</v>
-      </c>
-      <c r="C324" s="45" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D324" s="44" t="s">
-        <v>957</v>
-      </c>
-      <c r="E324" s="46">
-        <v>1</v>
-      </c>
-      <c r="F324" s="46">
-        <v>1</v>
-      </c>
-      <c r="G324" s="46">
-        <v>1</v>
-      </c>
-      <c r="I324" s="45" t="s">
-        <v>1035</v>
+      <c r="B324" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="E324" s="16">
+        <v>0</v>
+      </c>
+      <c r="F324" s="16">
+        <v>0</v>
+      </c>
+      <c r="G324" s="16">
+        <v>0</v>
+      </c>
+      <c r="I324" s="14" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13312,22 +13192,19 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="D325" s="17" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
       <c r="F325" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G325" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
         <v>958</v>
@@ -13338,19 +13215,25 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="C326" s="14" t="s">
-        <v>963</v>
+        <v>967</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="D326" s="17" t="s">
+        <v>968</v>
       </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
       <c r="F326" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G326" s="16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H326" s="16" t="s">
+        <v>995</v>
       </c>
       <c r="I326" s="14" t="s">
         <v>958</v>
@@ -13360,20 +13243,26 @@
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="23" t="s">
-        <v>965</v>
+      <c r="B327" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>984</v>
       </c>
       <c r="E327" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G327" s="16">
-        <v>1</v>
-      </c>
-      <c r="I327" s="18" t="s">
-        <v>638</v>
+        <v>0</v>
+      </c>
+      <c r="I327" s="14" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13381,42 +13270,42 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>968</v>
-      </c>
-      <c r="C328" s="17" t="s">
-        <v>967</v>
+        <v>980</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>979</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="E328" s="16">
         <v>0</v>
       </c>
       <c r="F328" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328" s="16">
-        <v>1</v>
-      </c>
-      <c r="H328" s="16" t="s">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="17" t="s">
-        <v>978</v>
-      </c>
-      <c r="C329" s="18" t="s">
-        <v>981</v>
+      <c r="B329" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C329" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="D329" s="14" t="s">
+        <v>987</v>
       </c>
       <c r="E329" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329" s="16">
         <v>1</v>
@@ -13425,21 +13314,24 @@
         <v>1</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="17" t="s">
-        <v>979</v>
+      <c r="B330" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>982</v>
+        <v>992</v>
+      </c>
+      <c r="D330" s="16" t="s">
+        <v>993</v>
       </c>
       <c r="E330" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F330" s="16">
         <v>1</v>
@@ -13448,21 +13340,24 @@
         <v>1</v>
       </c>
       <c r="I330" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" s="16" customFormat="1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="17" t="s">
-        <v>980</v>
+      <c r="B331" s="38" t="s">
+        <v>997</v>
       </c>
       <c r="C331" s="18" t="s">
-        <v>983</v>
+        <v>998</v>
+      </c>
+      <c r="D331" t="s">
+        <v>999</v>
       </c>
       <c r="E331" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F331" s="16">
         <v>1</v>
@@ -13471,24 +13366,24 @@
         <v>1</v>
       </c>
       <c r="I331" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" s="16" customFormat="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="17" t="s">
-        <v>1006</v>
+      <c r="B332" s="38" t="s">
+        <v>1001</v>
       </c>
       <c r="C332" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>1007</v>
+        <v>1003</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1002</v>
       </c>
       <c r="E332" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F332" s="16">
         <v>1</v>
@@ -13497,367 +13392,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" s="16" customFormat="1">
-      <c r="A333" s="15">
-        <v>332</v>
-      </c>
-      <c r="B333" s="17" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C333" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D333" s="17" t="s">
         <v>1004</v>
-      </c>
-      <c r="E333" s="16">
-        <v>0</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="16" customFormat="1">
-      <c r="A334" s="15">
-        <v>333</v>
-      </c>
-      <c r="B334" s="17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C334" s="14" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E334" s="16">
-        <v>0</v>
-      </c>
-      <c r="F334" s="16">
-        <v>1</v>
-      </c>
-      <c r="G334" s="16">
-        <v>1</v>
-      </c>
-      <c r="I334" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="16" customFormat="1">
-      <c r="A335" s="15">
-        <v>334</v>
-      </c>
-      <c r="B335" s="17" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C335" s="14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E335" s="16">
-        <v>0</v>
-      </c>
-      <c r="F335" s="16">
-        <v>1</v>
-      </c>
-      <c r="G335" s="16">
-        <v>1</v>
-      </c>
-      <c r="I335" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="16" customFormat="1">
-      <c r="A336" s="15">
-        <v>335</v>
-      </c>
-      <c r="B336" s="17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C336" s="14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E336" s="16">
-        <v>0</v>
-      </c>
-      <c r="F336" s="16">
-        <v>1</v>
-      </c>
-      <c r="G336" s="16">
-        <v>1</v>
-      </c>
-      <c r="I336" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" s="16" customFormat="1">
-      <c r="A337" s="15">
-        <v>336</v>
-      </c>
-      <c r="B337" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C337" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E337" s="16">
-        <v>0</v>
-      </c>
-      <c r="F337" s="16">
-        <v>1</v>
-      </c>
-      <c r="G337" s="16">
-        <v>1</v>
-      </c>
-      <c r="I337" s="14" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" s="16" customFormat="1">
-      <c r="A338" s="15">
-        <v>337</v>
-      </c>
-      <c r="B338" s="23" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C338" s="14" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D338" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E338" s="16">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16">
-        <v>1</v>
-      </c>
-      <c r="G338" s="16">
-        <v>1</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" s="16" customFormat="1">
-      <c r="A339" s="15">
-        <v>338</v>
-      </c>
-      <c r="B339" s="17" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C339" s="14" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E339" s="16">
-        <v>0</v>
-      </c>
-      <c r="F339" s="16">
-        <v>1</v>
-      </c>
-      <c r="G339" s="16">
-        <v>1</v>
-      </c>
-      <c r="I339" s="14" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" s="16" customFormat="1">
-      <c r="A340" s="15">
-        <v>339</v>
-      </c>
-      <c r="B340" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C340" s="14" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E340" s="16">
-        <v>0</v>
-      </c>
-      <c r="F340" s="16">
-        <v>1</v>
-      </c>
-      <c r="G340" s="16">
-        <v>1</v>
-      </c>
-      <c r="I340" s="14" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" s="16" customFormat="1">
-      <c r="A341" s="15">
-        <v>340</v>
-      </c>
-      <c r="B341" s="17" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C341" s="18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E341" s="16">
-        <v>0</v>
-      </c>
-      <c r="F341" s="16">
-        <v>1</v>
-      </c>
-      <c r="G341" s="16">
-        <v>1</v>
-      </c>
-      <c r="I341" s="14" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" s="16" customFormat="1">
-      <c r="A342" s="15">
-        <v>341</v>
-      </c>
-      <c r="B342" s="23" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C342" s="18" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D342" s="16" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E342" s="16">
-        <v>1</v>
-      </c>
-      <c r="F342" s="16">
-        <v>1</v>
-      </c>
-      <c r="G342" s="16">
-        <v>1</v>
-      </c>
-      <c r="I342" s="14" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" s="46" customFormat="1">
-      <c r="A343" s="15">
-        <v>342</v>
-      </c>
-      <c r="B343" s="44" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C343" s="45" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E343" s="46">
-        <v>1</v>
-      </c>
-      <c r="F343" s="46">
-        <v>1</v>
-      </c>
-      <c r="G343" s="46">
-        <v>1</v>
-      </c>
-      <c r="I343" s="45" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
-      <c r="A344" s="15">
-        <v>343</v>
-      </c>
-      <c r="B344" s="38" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C344" s="18" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E344" s="16">
-        <v>1</v>
-      </c>
-      <c r="F344" s="16">
-        <v>1</v>
-      </c>
-      <c r="G344" s="16">
-        <v>1</v>
-      </c>
-      <c r="I344" s="14" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
-      <c r="A345" s="15">
-        <v>344</v>
-      </c>
-      <c r="B345" s="38" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C345" s="18" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E345" s="16">
-        <v>1</v>
-      </c>
-      <c r="F345" s="16">
-        <v>1</v>
-      </c>
-      <c r="G345" s="16">
-        <v>1</v>
-      </c>
-      <c r="I345" s="14" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" s="46" customFormat="1">
-      <c r="A346" s="15">
-        <v>345</v>
-      </c>
-      <c r="B346" s="44" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C346" s="48" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E346" s="46">
-        <v>1</v>
-      </c>
-      <c r="F346" s="46">
-        <v>1</v>
-      </c>
-      <c r="G346" s="46">
-        <v>1</v>
-      </c>
-      <c r="I346" s="45" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" s="46" customFormat="1">
-      <c r="A347" s="15">
-        <v>346</v>
-      </c>
-      <c r="B347" s="44" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C347" s="45" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E347" s="46">
-        <v>1</v>
-      </c>
-      <c r="F347" s="46">
-        <v>1</v>
-      </c>
-      <c r="G347" s="46">
-        <v>1</v>
-      </c>
-      <c r="I347" s="45" t="s">
-        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.16/game_module_config.xlsx
+++ b/config_3.16/game_module_config.xlsx
@@ -4930,10 +4930,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C315" sqref="C315"/>
+      <selection pane="bottomRight" activeCell="D269" sqref="D269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12817,55 +12817,55 @@
         <v>919</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="16" customFormat="1">
-      <c r="A310" s="15">
+    <row r="310" spans="1:9" s="45" customFormat="1">
+      <c r="A310" s="42">
         <v>309</v>
       </c>
-      <c r="B310" s="17" t="s">
+      <c r="B310" s="43" t="s">
         <v>920</v>
       </c>
-      <c r="C310" s="14" t="s">
+      <c r="C310" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="D310" s="17" t="s">
+      <c r="D310" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="E310" s="16">
-        <v>1</v>
-      </c>
-      <c r="F310" s="16">
-        <v>1</v>
-      </c>
-      <c r="G310" s="16">
-        <v>1</v>
-      </c>
-      <c r="I310" s="14" t="s">
+      <c r="E310" s="45">
+        <v>1</v>
+      </c>
+      <c r="F310" s="45">
+        <v>1</v>
+      </c>
+      <c r="G310" s="45">
+        <v>1</v>
+      </c>
+      <c r="I310" s="44" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="45" customFormat="1">
+    <row r="311" spans="1:9" s="16" customFormat="1">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="43" t="s">
+      <c r="B311" s="17" t="s">
         <v>964</v>
       </c>
-      <c r="C311" s="44" t="s">
+      <c r="C311" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="D311" s="43" t="s">
+      <c r="D311" s="17" t="s">
         <v>924</v>
       </c>
-      <c r="E311" s="45">
-        <v>0</v>
-      </c>
-      <c r="F311" s="45">
-        <v>0</v>
-      </c>
-      <c r="G311" s="45">
-        <v>0</v>
-      </c>
-      <c r="I311" s="44" t="s">
+      <c r="E311" s="16">
+        <v>0</v>
+      </c>
+      <c r="F311" s="16">
+        <v>0</v>
+      </c>
+      <c r="G311" s="16">
+        <v>0</v>
+      </c>
+      <c r="I311" s="14" t="s">
         <v>928</v>
       </c>
     </row>

--- a/config_3.16/game_module_config.xlsx
+++ b/config_3.16/game_module_config.xlsx
@@ -4231,10 +4231,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_007_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_jrth</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4299,6 +4295,10 @@
   </si>
   <si>
     <t>3月22日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_008_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4930,10 +4930,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D269" sqref="D269"/>
+      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11417,13 +11417,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C256" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="D256" s="14" t="s">
         <v>1007</v>
-      </c>
-      <c r="D256" s="14" t="s">
-        <v>1008</v>
       </c>
       <c r="E256" s="16">
         <v>0</v>
@@ -11958,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="44" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -13001,10 +13001,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="C317" s="44" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E317" s="45">
         <v>1</v>
@@ -13016,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="44" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="45" customFormat="1">
@@ -13024,10 +13024,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C318" s="44" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E318" s="45">
         <v>1</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="44" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="45" customFormat="1">
@@ -13047,10 +13047,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C319" s="44" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E319" s="45">
         <v>1</v>
@@ -13062,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="44" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="45" customFormat="1">
@@ -13070,10 +13070,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="47" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C320" s="44" t="s">
         <v>1012</v>
-      </c>
-      <c r="C320" s="44" t="s">
-        <v>1013</v>
       </c>
       <c r="E320" s="45">
         <v>1</v>
@@ -13093,10 +13093,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C321" s="44" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E321" s="45">
         <v>1</v>
@@ -13119,7 +13119,7 @@
         <v>956</v>
       </c>
       <c r="C322" s="44" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D322" s="43" t="s">
         <v>957</v>
@@ -13142,10 +13142,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="50" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>1015</v>
-      </c>
-      <c r="C323" s="14" t="s">
-        <v>1016</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">

--- a/config_3.16/game_module_config.xlsx
+++ b/config_3.16/game_module_config.xlsx
@@ -4930,10 +4930,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
+      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
